--- a/biology/Zoologie/Brookesia_micra/Brookesia_micra.xlsx
+++ b/biology/Zoologie/Brookesia_micra/Brookesia_micra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brookesia micra est une espèce de sauriens de la famille des Chamaeleonidae[1].
-Elle a été découverte en 2007 et décrite en février 2012. Jusqu'en 2021 – et la découverte de Brookesia nana –, Brookesia micra était considéré comme l'un des plus petits reptiles et la plus petite espèce connue de caméléon au monde avec en moyenne 23,6 millimètres de long à l’âge adulte[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brookesia micra est une espèce de sauriens de la famille des Chamaeleonidae.
+Elle a été découverte en 2007 et décrite en février 2012. Jusqu'en 2021 – et la découverte de Brookesia nana –, Brookesia micra était considéré comme l'un des plus petits reptiles et la plus petite espèce connue de caméléon au monde avec en moyenne 23,6 millimètres de long à l’âge adulte.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce, du grec ancien μικρός, mikros, « petit », lui a été donné en référence à sa taille.
 </t>
@@ -545,10 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Répartition
-Cette espèce est endémique de la région de Diana à Madagascar[1]. Elle a été découverte sur Nosy Hara près du cap d'Ambre[1].
-Habitat
-Cette espèce mène une vie diurne et terrestre sur le sol des forêts[2]. Pendant la journée, ils se déplacent sur les blocs de calcaire et entre les feuilles mortes de leur habitat. La nuit, les animaux se replient sur des branches à un niveau bas (5 à 10 cm au-dessus du sol).
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la région de Diana à Madagascar. Elle a été découverte sur Nosy Hara près du cap d'Ambre.
 </t>
         </is>
       </c>
@@ -574,12 +591,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Répartition et habitat</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce mène une vie diurne et terrestre sur le sol des forêts. Pendant la journée, ils se déplacent sur les blocs de calcaire et entre les feuilles mortes de leur habitat. La nuit, les animaux se replient sur des branches à un niveau bas (5 à 10 cm au-dessus du sol).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Brookesia_micra</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brookesia_micra</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En fonction d'une étude du Zoologische Staatssammlung, l'holotype mâle de l'espèce mesure 23,6 mm en longueur totale et de 15,3 à 15,8 mm SVL (sans la queue) ; les femelles de 26,9 à 28,8 mm en longueur totale et de 18,7 à 19,9 mm SVL[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En fonction d'une étude du Zoologische Staatssammlung, l'holotype mâle de l'espèce mesure 23,6 mm en longueur totale et de 15,3 à 15,8 mm SVL (sans la queue) ; les femelles de 26,9 à 28,8 mm en longueur totale et de 18,7 à 19,9 mm SVL.
 </t>
         </is>
       </c>
